--- a/public/docs/kanji_n3.xlsx
+++ b/public/docs/kanji_n3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IG24-253\Documents\Work\ubuntu_practice\java\spring_boot\khans_kanji_english_practice\public\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,9 +30,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>ImageUrl</t>
-  </si>
-  <si>
     <t>感</t>
   </si>
   <si>
@@ -113,17 +115,21 @@
   </si>
   <si>
     <t>pipe / manage</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,8 +137,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -178,15 +191,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +281,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,14 +492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,120 +512,121 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/docs/kanji_n3.xlsx
+++ b/public/docs/kanji_n3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Kanji</t>
   </si>
@@ -30,94 +30,145 @@
     <t>English</t>
   </si>
   <si>
+    <t>かん</t>
+  </si>
+  <si>
+    <t>そう</t>
+  </si>
+  <si>
+    <t>あい</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
+    <t>けい</t>
+  </si>
+  <si>
+    <t>さい</t>
+  </si>
+  <si>
+    <t>じょう</t>
+  </si>
+  <si>
+    <t>ほう</t>
+  </si>
+  <si>
+    <t>せつ</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>finish / settle</t>
+  </si>
+  <si>
+    <t>emotion</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>pipe / manage</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>感</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_feeling.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>想</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_thought.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>愛</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_love.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>機</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_machine.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>経</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pass through / manage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_pass_through.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>済</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_finish.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>情</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_emotion.webp</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>報</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_report.png</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>設</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_establish.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>管</t>
-  </si>
-  <si>
-    <t>かん</t>
-  </si>
-  <si>
-    <t>そう</t>
-  </si>
-  <si>
-    <t>あい</t>
-  </si>
-  <si>
-    <t>き</t>
-  </si>
-  <si>
-    <t>けい</t>
-  </si>
-  <si>
-    <t>さい</t>
-  </si>
-  <si>
-    <t>じょう</t>
-  </si>
-  <si>
-    <t>ほう</t>
-  </si>
-  <si>
-    <t>せつ</t>
-  </si>
-  <si>
-    <t>feeling</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>pass through / manage</t>
-  </si>
-  <si>
-    <t>finish / settle</t>
-  </si>
-  <si>
-    <t>emotion</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>establish</t>
-  </si>
-  <si>
-    <t>pipe / manage</t>
-  </si>
-  <si>
-    <t>ImageName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n3_manage.png</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -496,7 +547,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -512,121 +563,152 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>